--- a/public/templates/temp_raspOK.xlsx
+++ b/public/templates/temp_raspOK.xlsx
@@ -32,16 +32,10 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Преподаватель</t>
-  </si>
-  <si>
     <t>поток</t>
   </si>
   <si>
     <t>Рождественская</t>
-  </si>
-  <si>
-    <t>Ауд.</t>
   </si>
   <si>
     <t>Типа тема</t>
@@ -62,12 +56,18 @@
   <si>
     <t>Дисциплина</t>
   </si>
+  <si>
+    <t>Вид занятия, длительность</t>
+  </si>
+  <si>
+    <t>Аудитория, преподаватель</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,13 +91,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -114,7 +107,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,133 +164,122 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,395 +632,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="43" t="s">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="E10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>43840</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="24">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
         <v>2002</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="34"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="35"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="34"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="35"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="34"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="35"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="34"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="35"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="34"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="35"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+    </row>
+    <row r="43" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="34"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="35"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="35"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="34"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="35"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+    </row>
+    <row r="46" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="34"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="35"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+    </row>
+    <row r="47" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="34"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="35"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+    </row>
+    <row r="48" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="34"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="35"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+    </row>
+    <row r="49" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="35"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+    </row>
+    <row r="50" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="35"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+    </row>
+    <row r="51" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="34"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="35"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+    </row>
+    <row r="52" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="35"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+    </row>
+    <row r="53" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="34"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="35"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+    </row>
+    <row r="54" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="34"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="35"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+    </row>
+    <row r="55" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="34"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="35"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+    </row>
+    <row r="56" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="34"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="35"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+    </row>
+    <row r="57" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="34"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="35"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="34"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="35"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+    </row>
+    <row r="59" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="34"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="35"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+    </row>
+    <row r="60" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="34"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="35"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+    </row>
+    <row r="61" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="34"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="35"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+    </row>
+    <row r="62" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="34"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="35"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+    </row>
+    <row r="63" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="34"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+    </row>
+    <row r="64" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="34"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+    </row>
+    <row r="65" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="34"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+    </row>
+    <row r="66" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="34"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+    </row>
+    <row r="67" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="34"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/public/templates/temp_raspOK.xlsx
+++ b/public/templates/temp_raspOK.xlsx
@@ -236,15 +236,6 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -281,6 +272,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +633,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,22 +646,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="15"/>
@@ -683,20 +683,20 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>43840</v>
       </c>
@@ -732,397 +732,397 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="22"/>
       <c r="C31" s="8"/>
       <c r="D31" s="11"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-    </row>
-    <row r="38" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-    </row>
-    <row r="39" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-    </row>
-    <row r="42" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-    </row>
-    <row r="43" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-    </row>
-    <row r="44" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-    </row>
-    <row r="45" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="46" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-    </row>
-    <row r="48" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-    </row>
-    <row r="49" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-    </row>
-    <row r="50" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-    </row>
-    <row r="51" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-    </row>
-    <row r="52" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="53" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-    </row>
-    <row r="54" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-    </row>
-    <row r="55" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-    </row>
-    <row r="56" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-    </row>
-    <row r="57" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-    </row>
-    <row r="59" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-    </row>
-    <row r="60" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-    </row>
-    <row r="61" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-    </row>
-    <row r="62" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-    </row>
-    <row r="64" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-    </row>
-    <row r="65" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-    </row>
-    <row r="66" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-    </row>
-    <row r="67" spans="1:5" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="31"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="31"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+    </row>
+    <row r="58" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="31"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+    </row>
+    <row r="59" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="31"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="31"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+    </row>
+    <row r="61" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+    </row>
+    <row r="62" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="31"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+    </row>
+    <row r="63" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="31"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+    </row>
+    <row r="64" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="31"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/public/templates/temp_raspOK.xlsx
+++ b/public/templates/temp_raspOK.xlsx
@@ -41,12 +41,6 @@
     <t>Типа тема</t>
   </si>
   <si>
-    <t>УТВЕРЖДАЮ
-Проректор Приволжского института повышения квалификации ФНС России
-_____________ И.В.Кожанова 
-«____» _____________ 2020 г.</t>
-  </si>
-  <si>
     <t>20.01.2020 – 20.02.2020</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>Аудитория, преподаватель</t>
+  </si>
+  <si>
+    <t>УТВЕРЖДАЮ
+Проректор Приволжского института повышения квалификации ФНС России
+_____________ И.В.Кожанова 
+«____» _____________ 2021 г.</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" s="38" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1" s="38"/>
     </row>
@@ -679,7 +679,7 @@
       <c r="A7" s="17"/>
       <c r="B7" s="3"/>
       <c r="C7" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">

--- a/public/templates/temp_raspOK.xlsx
+++ b/public/templates/temp_raspOK.xlsx
@@ -276,10 +276,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,7 +633,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
